--- a/data/trans_orig/P20D1_R_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_R_2023-Provincia-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>1510</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2992</v>
+        <v>2524</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5045590913971157</v>
+        <v>0.5045590913971156</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1614609721129197</v>
+        <v>0.1604589399115974</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>1</v>
+        <v>0.8434887221572985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>1510</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2940936107145249</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07305650901001441</v>
+        <v>0.07126314700868042</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6854202849393427</v>
+        <v>0.744256470775102</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>1482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4954409086028844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0</v>
+        <v>0.1565423116760473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8389935073728669</v>
+        <v>0.8395410600884025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -838,19 +838,19 @@
         <v>3624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1613</v>
+        <v>1313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4758</v>
+        <v>4762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7059063892854749</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3141148911444682</v>
+        <v>0.2557312592564067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9268491912088967</v>
+        <v>0.9275051394316751</v>
       </c>
     </row>
     <row r="6">
@@ -945,16 +945,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7105</v>
+        <v>7263</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1569070933891917</v>
+        <v>0.1569070933891918</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4250314659457768</v>
+        <v>0.4344750529087628</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -963,19 +963,19 @@
         <v>3896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1790</v>
+        <v>1773</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5888</v>
+        <v>5847</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5944279476709488</v>
+        <v>0.5944279476709489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2731376246066984</v>
+        <v>0.2705103039067598</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8984108372295871</v>
+        <v>0.8921501968376691</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -984,19 +984,19 @@
         <v>6519</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2690</v>
+        <v>3058</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11445</v>
+        <v>11856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2801313283726586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1156093754177016</v>
+        <v>0.1314143378359968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.491781545678282</v>
+        <v>0.5094429958359458</v>
       </c>
     </row>
     <row r="8">
@@ -1013,16 +1013,16 @@
         <v>14094</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9612</v>
+        <v>9454</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>16717</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8430929066108083</v>
+        <v>0.8430929066108084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5749685340542231</v>
+        <v>0.5655249470912372</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,19 +1034,19 @@
         <v>2658</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>666</v>
+        <v>707</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4764</v>
+        <v>4781</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4055720523290512</v>
+        <v>0.4055720523290511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1015891627704128</v>
+        <v>0.107849803162331</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7268623753933016</v>
+        <v>0.72948969609324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1055,19 +1055,19 @@
         <v>16753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11827</v>
+        <v>11416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20582</v>
+        <v>20214</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7198686716273416</v>
+        <v>0.7198686716273413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5082184543217176</v>
+        <v>0.4905570041640543</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8843906245822983</v>
+        <v>0.8685856621640032</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3575</v>
+        <v>3811</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1064198029529297</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3339584086357372</v>
+        <v>0.3559838931257549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1180,19 +1180,19 @@
         <v>4597</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2422</v>
+        <v>2338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6337</v>
+        <v>6383</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6607606620500811</v>
+        <v>0.6607606620500812</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3482064799876328</v>
+        <v>0.3360365949921145</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9108782606353442</v>
+        <v>0.9174981772021973</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1201,19 +1201,19 @@
         <v>5736</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2783</v>
+        <v>2851</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9594</v>
+        <v>8984</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3247609802358647</v>
+        <v>0.3247609802358646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1575382093486817</v>
+        <v>0.1614309233945367</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5431494348825917</v>
+        <v>0.5086307282545817</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>9567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7131</v>
+        <v>6895</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>10706</v>
@@ -1239,7 +1239,7 @@
         <v>0.8935801970470703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6660415913642634</v>
+        <v>0.6440161068742458</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>2360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4535</v>
+        <v>4619</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3392393379499188</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08912173936465576</v>
+        <v>0.08250182279780258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6517935200123672</v>
+        <v>0.6639634050078855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -1272,19 +1272,19 @@
         <v>11927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8069</v>
+        <v>8679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14880</v>
+        <v>14812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6752390197641354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4568505651174084</v>
+        <v>0.4913692717454199</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8424617906513183</v>
+        <v>0.8385690766054636</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4843</v>
+        <v>4756</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0999392513221925</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4503251702840166</v>
+        <v>0.4422959927656582</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1397,19 +1397,19 @@
         <v>8706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5335</v>
+        <v>5383</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11000</v>
+        <v>10962</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7594681419476977</v>
+        <v>0.7594681419476975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.465394770078934</v>
+        <v>0.4695916526453199</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9595830313339252</v>
+        <v>0.956299397023387</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1418,19 +1418,19 @@
         <v>9780</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4909</v>
+        <v>4848</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16338</v>
+        <v>16331</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4402211022557907</v>
+        <v>0.4402211022557908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2209415633360231</v>
+        <v>0.2182195254844366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.735366053766126</v>
+        <v>0.7350556785673833</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         <v>9679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5911</v>
+        <v>5998</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>10754</v>
@@ -1456,7 +1456,7 @@
         <v>0.9000607486778075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5496748297159857</v>
+        <v>0.5577040072343412</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,19 +1468,19 @@
         <v>2757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6128</v>
+        <v>6080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2405318580523023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04041696866607491</v>
+        <v>0.04370060297661305</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5346052299210657</v>
+        <v>0.53040834735468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1489,19 +1489,19 @@
         <v>12437</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5879</v>
+        <v>5886</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17308</v>
+        <v>17369</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5597788977442092</v>
+        <v>0.5597788977442094</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2646339462338741</v>
+        <v>0.2649443214326161</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7790584366639769</v>
+        <v>0.7817804745155633</v>
       </c>
     </row>
     <row r="15">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2785</v>
+        <v>2813</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3571302811211701</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7644672388122892</v>
+        <v>0.7720377025938998</v>
       </c>
     </row>
     <row r="17">
@@ -1690,16 +1690,16 @@
         <v>2342</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>3643</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6428697188788298</v>
+        <v>0.6428697188788299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2348292285692555</v>
+        <v>0.2297460810879007</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1794,19 +1794,19 @@
         <v>1432</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3136</v>
+        <v>3407</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2345719747063957</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07268009345250619</v>
+        <v>0.06913370349697223</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5137881242269859</v>
+        <v>0.5583220742598919</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1815,7 +1815,7 @@
         <v>2615</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1058</v>
+        <v>912</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>3313</v>
@@ -1824,7 +1824,7 @@
         <v>0.7893044261107738</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3192412557903377</v>
+        <v>0.2753128103658902</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1836,19 +1836,19 @@
         <v>4047</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1903</v>
+        <v>1979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6299</v>
+        <v>6440</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4297640488183433</v>
+        <v>0.4297640488183436</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.202051680536551</v>
+        <v>0.2102048230106807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6689685586736068</v>
+        <v>0.6839147291275471</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>4671</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2967</v>
+        <v>2696</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5659</v>
+        <v>5681</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7654280252936043</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.486211875773014</v>
+        <v>0.4416779257401082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9273199065474939</v>
+        <v>0.9308662965030278</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6483265921611866</v>
+        <v>0.6482573414664844</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1907,19 +1907,19 @@
         <v>5369</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3117</v>
+        <v>2976</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7513</v>
+        <v>7437</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5702359511816565</v>
+        <v>0.5702359511816567</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3310314413263931</v>
+        <v>0.3160852708724529</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.797948319463449</v>
+        <v>0.7897951769893196</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4806</v>
+        <v>5626</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1085295654099678</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4495627534667058</v>
+        <v>0.5262417988114119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2032,19 +2032,19 @@
         <v>7631</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4363</v>
+        <v>4415</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12092</v>
+        <v>11973</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3819996983414162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2184059974748207</v>
+        <v>0.2209941877295384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6053190066765933</v>
+        <v>0.5993652051718105</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2053,19 +2053,19 @@
         <v>8791</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4837</v>
+        <v>4675</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13787</v>
+        <v>13442</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2866711306576855</v>
+        <v>0.2866711306576856</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1577426451675649</v>
+        <v>0.152447367843442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4495865447147223</v>
+        <v>0.4383362243613103</v>
       </c>
     </row>
     <row r="23">
@@ -2082,16 +2082,16 @@
         <v>9530</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5884</v>
+        <v>5064</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>10690</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8914704345900322</v>
+        <v>0.8914704345900323</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5504372465332952</v>
+        <v>0.4737582011885865</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2103,19 +2103,19 @@
         <v>12345</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7884</v>
+        <v>8003</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15613</v>
+        <v>15561</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6180003016585838</v>
+        <v>0.6180003016585839</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3946809933234067</v>
+        <v>0.40063479482819</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7815940025251793</v>
+        <v>0.7790058122704621</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2124,19 +2124,19 @@
         <v>21875</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16879</v>
+        <v>17224</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25829</v>
+        <v>25991</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7133288693423145</v>
+        <v>0.7133288693423144</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.550413455285278</v>
+        <v>0.5616637756386897</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8422573548324351</v>
+        <v>0.8475526321565581</v>
       </c>
     </row>
     <row r="24">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2482</v>
+        <v>2542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1116519140950761</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5134273195176514</v>
+        <v>0.5258631407412722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2970</v>
+        <v>3012</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04004771838514566</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2203502457723476</v>
+        <v>0.2235071967940681</v>
       </c>
     </row>
     <row r="26">
@@ -2304,7 +2304,7 @@
         <v>4294</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2351</v>
+        <v>2292</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>4834</v>
@@ -2313,7 +2313,7 @@
         <v>0.8883480859049238</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.48625490270331</v>
+        <v>0.4741368592587277</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>12937</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10507</v>
+        <v>10465</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>13477</v>
@@ -2334,7 +2334,7 @@
         <v>0.9599522816148544</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7796497542276523</v>
+        <v>0.7764928032059315</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
@@ -2429,19 +2429,19 @@
         <v>8730</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -2450,19 +2450,19 @@
         <v>29494</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -2471,19 +2471,19 @@
         <v>38224</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>59472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>52922</v>
+        <v>52552</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63499</v>
+        <v>63480</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8719985728759676</v>
+        <v>0.8719985728759677</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7759647883300005</v>
+        <v>0.7705321049726749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9310419849117536</v>
+        <v>0.9307648439437423</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -2521,19 +2521,19 @@
         <v>27791</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20240</v>
+        <v>20681</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33735</v>
+        <v>34587</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4851345572457079</v>
+        <v>0.485134557245708</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3533187266525502</v>
+        <v>0.3610247906929173</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5888918628921288</v>
+        <v>0.6037730737487657</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>111</v>
@@ -2542,19 +2542,19 @@
         <v>87263</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>74699</v>
+        <v>76822</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>96492</v>
+        <v>96702</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6953950170816892</v>
+        <v>0.6953950170816894</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5952748916358115</v>
+        <v>0.6121913449575844</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7689431542382812</v>
+        <v>0.7706115535449788</v>
       </c>
     </row>
     <row r="30">
